--- a/phenotypic-feature-onset.xlsx
+++ b/phenotypic-feature-onset.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
   <si>
     <t>Path</t>
   </si>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>http://ga4gh.org/fhir/phenopackets/ValueSet/onset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
 </sst>
 </file>
@@ -831,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -1031,7 +1035,7 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>63</v>
